--- a/表格/计划表.xlsx
+++ b/表格/计划表.xlsx
@@ -50,14 +50,15 @@
     <t>Real-Time Rendering, Fourth Edition</t>
   </si>
   <si>
+    <t>SRP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Advanced Global Illumination</t>
-  </si>
-  <si>
-    <t>SRP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -476,7 +477,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6">
@@ -485,7 +486,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -576,13 +577,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2">
         <v>366</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>3540</v>
       </c>
     </row>
   </sheetData>
